--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb1-Itgb6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb1-Itgb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>98.91277700000001</v>
+        <v>35.906979</v>
       </c>
       <c r="H2">
-        <v>296.738331</v>
+        <v>107.720937</v>
       </c>
       <c r="I2">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789413</v>
       </c>
       <c r="J2">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789412</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.128124</v>
+        <v>0.2109236666666666</v>
       </c>
       <c r="N2">
-        <v>0.384372</v>
+        <v>0.632771</v>
       </c>
       <c r="O2">
-        <v>0.3522399658364659</v>
+        <v>0.8951984155054113</v>
       </c>
       <c r="P2">
-        <v>0.352239965836466</v>
+        <v>0.8951984155054113</v>
       </c>
       <c r="Q2">
-        <v>12.673100640348</v>
+        <v>7.573631669602999</v>
       </c>
       <c r="R2">
-        <v>114.057905763132</v>
+        <v>68.162685026427</v>
       </c>
       <c r="S2">
-        <v>0.2860479166839977</v>
+        <v>0.5467054738054544</v>
       </c>
       <c r="T2">
-        <v>0.2860479166839978</v>
+        <v>0.5467054738054543</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,51 +596,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>98.91277700000001</v>
+        <v>35.906979</v>
       </c>
       <c r="H3">
-        <v>296.738331</v>
+        <v>107.720937</v>
       </c>
       <c r="I3">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789413</v>
       </c>
       <c r="J3">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789412</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.2109236666666666</v>
+        <v>0.024693</v>
       </c>
       <c r="N3">
-        <v>0.632771</v>
+        <v>0.07407900000000001</v>
       </c>
       <c r="O3">
-        <v>0.5798737562109268</v>
+        <v>0.1048015844945887</v>
       </c>
       <c r="P3">
-        <v>0.5798737562109268</v>
+        <v>0.1048015844945887</v>
       </c>
       <c r="Q3">
-        <v>20.86304560502233</v>
+        <v>0.8866510324470001</v>
       </c>
       <c r="R3">
-        <v>187.767410445201</v>
+        <v>7.979859292023</v>
       </c>
       <c r="S3">
-        <v>0.4709053372463392</v>
+        <v>0.06400324097348688</v>
       </c>
       <c r="T3">
-        <v>0.4709053372463392</v>
+        <v>0.06400324097348686</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>98.91277700000001</v>
+        <v>17.04862266666667</v>
       </c>
       <c r="H4">
-        <v>296.738331</v>
+        <v>51.14586800000001</v>
       </c>
       <c r="I4">
-        <v>0.8120825131376513</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="J4">
-        <v>0.8120825131376513</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.024693</v>
+        <v>0.2109236666666666</v>
       </c>
       <c r="N4">
-        <v>0.07407899999999999</v>
+        <v>0.632771</v>
       </c>
       <c r="O4">
-        <v>0.06788627795260725</v>
+        <v>0.8951984155054113</v>
       </c>
       <c r="P4">
-        <v>0.06788627795260725</v>
+        <v>0.8951984155054113</v>
       </c>
       <c r="Q4">
-        <v>2.442453202461</v>
+        <v>3.595958004469778</v>
       </c>
       <c r="R4">
-        <v>21.982078822149</v>
+        <v>32.363622040228</v>
       </c>
       <c r="S4">
-        <v>0.05512925920731443</v>
+        <v>0.2595755920516291</v>
       </c>
       <c r="T4">
-        <v>0.05512925920731443</v>
+        <v>0.259575592051629</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,10 +726,10 @@
         <v>51.14586800000001</v>
       </c>
       <c r="I5">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="J5">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,33 +738,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.128124</v>
+        <v>0.024693</v>
       </c>
       <c r="N5">
-        <v>0.384372</v>
+        <v>0.07407900000000001</v>
       </c>
       <c r="O5">
-        <v>0.3522399658364659</v>
+        <v>0.1048015844945887</v>
       </c>
       <c r="P5">
-        <v>0.352239965836466</v>
+        <v>0.1048015844945887</v>
       </c>
       <c r="Q5">
-        <v>2.184337730544001</v>
+        <v>0.4209816395080002</v>
       </c>
       <c r="R5">
-        <v>19.65903957489601</v>
+        <v>3.788834755572001</v>
       </c>
       <c r="S5">
-        <v>0.04930326641351482</v>
+        <v>0.03038871927378567</v>
       </c>
       <c r="T5">
-        <v>0.04930326641351483</v>
+        <v>0.03038871927378566</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.04862266666667</v>
+        <v>5.839988000000001</v>
       </c>
       <c r="H6">
-        <v>51.14586800000001</v>
+        <v>17.519964</v>
       </c>
       <c r="I6">
-        <v>0.1399706767982279</v>
+        <v>0.09932697389564409</v>
       </c>
       <c r="J6">
-        <v>0.1399706767982279</v>
+        <v>0.09932697389564407</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>0.632771</v>
       </c>
       <c r="O6">
-        <v>0.5798737562109268</v>
+        <v>0.8951984155054113</v>
       </c>
       <c r="P6">
-        <v>0.5798737562109268</v>
+        <v>0.8951984155054113</v>
       </c>
       <c r="Q6">
-        <v>3.595958004469778</v>
+        <v>1.231791682249333</v>
       </c>
       <c r="R6">
-        <v>32.363622040228</v>
+        <v>11.086125140244</v>
       </c>
       <c r="S6">
-        <v>0.08116532211437406</v>
+        <v>0.08891734964832794</v>
       </c>
       <c r="T6">
-        <v>0.08116532211437406</v>
+        <v>0.08891734964832793</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.04862266666667</v>
+        <v>5.839988000000001</v>
       </c>
       <c r="H7">
-        <v>51.14586800000001</v>
+        <v>17.519964</v>
       </c>
       <c r="I7">
-        <v>0.1399706767982279</v>
+        <v>0.09932697389564409</v>
       </c>
       <c r="J7">
-        <v>0.1399706767982279</v>
+        <v>0.09932697389564407</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -865,211 +865,25 @@
         <v>0.024693</v>
       </c>
       <c r="N7">
-        <v>0.07407899999999999</v>
+        <v>0.07407900000000001</v>
       </c>
       <c r="O7">
-        <v>0.06788627795260725</v>
+        <v>0.1048015844945887</v>
       </c>
       <c r="P7">
-        <v>0.06788627795260725</v>
+        <v>0.1048015844945887</v>
       </c>
       <c r="Q7">
-        <v>0.420981639508</v>
+        <v>0.144206823684</v>
       </c>
       <c r="R7">
-        <v>3.788834755572</v>
+        <v>1.297861413156</v>
       </c>
       <c r="S7">
-        <v>0.009502088270339057</v>
+        <v>0.01040962424731615</v>
       </c>
       <c r="T7">
-        <v>0.009502088270339057</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>5.839988000000001</v>
-      </c>
-      <c r="H8">
-        <v>17.519964</v>
-      </c>
-      <c r="I8">
-        <v>0.0479468100641207</v>
-      </c>
-      <c r="J8">
-        <v>0.04794681006412069</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.128124</v>
-      </c>
-      <c r="N8">
-        <v>0.384372</v>
-      </c>
-      <c r="O8">
-        <v>0.3522399658364659</v>
-      </c>
-      <c r="P8">
-        <v>0.352239965836466</v>
-      </c>
-      <c r="Q8">
-        <v>0.7482426225120002</v>
-      </c>
-      <c r="R8">
-        <v>6.734183602608002</v>
-      </c>
-      <c r="S8">
-        <v>0.0168887827389534</v>
-      </c>
-      <c r="T8">
-        <v>0.0168887827389534</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>5.839988000000001</v>
-      </c>
-      <c r="H9">
-        <v>17.519964</v>
-      </c>
-      <c r="I9">
-        <v>0.0479468100641207</v>
-      </c>
-      <c r="J9">
-        <v>0.04794681006412069</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.2109236666666666</v>
-      </c>
-      <c r="N9">
-        <v>0.632771</v>
-      </c>
-      <c r="O9">
-        <v>0.5798737562109268</v>
-      </c>
-      <c r="P9">
-        <v>0.5798737562109268</v>
-      </c>
-      <c r="Q9">
-        <v>1.231791682249333</v>
-      </c>
-      <c r="R9">
-        <v>11.086125140244</v>
-      </c>
-      <c r="S9">
-        <v>0.02780309685021354</v>
-      </c>
-      <c r="T9">
-        <v>0.02780309685021354</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>5.839988000000001</v>
-      </c>
-      <c r="H10">
-        <v>17.519964</v>
-      </c>
-      <c r="I10">
-        <v>0.0479468100641207</v>
-      </c>
-      <c r="J10">
-        <v>0.04794681006412069</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.024693</v>
-      </c>
-      <c r="N10">
-        <v>0.07407899999999999</v>
-      </c>
-      <c r="O10">
-        <v>0.06788627795260725</v>
-      </c>
-      <c r="P10">
-        <v>0.06788627795260725</v>
-      </c>
-      <c r="Q10">
-        <v>0.144206823684</v>
-      </c>
-      <c r="R10">
-        <v>1.297861413156</v>
-      </c>
-      <c r="S10">
-        <v>0.003254930474953765</v>
-      </c>
-      <c r="T10">
-        <v>0.003254930474953764</v>
+        <v>0.01040962424731615</v>
       </c>
     </row>
   </sheetData>
